--- a/bh3/498532354588315837_2021-03-05_10-40-09.xlsx
+++ b/bh3/498532354588315837_2021-03-05_10-40-09.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4252156807</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-11 22:38:46</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44266.94358796296</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4247521335</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:28:35</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44265.89484953704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>4246181090</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:24:30</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44265.68368055556</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-09 22:17:37</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44264.92890046296</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,10 +851,8 @@
           <t>4232158865</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-07 13:27:37</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44262.56084490741</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -914,10 +920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:08:37</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44262.3809837963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>4221544074</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-07 06:34:20</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44262.27384259259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:59:39</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44261.91642361111</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>4221397165</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:47:27</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44261.90795138889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:12:33</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44261.88371527778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1281,10 +1277,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:43:34</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44261.86358796297</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1360,10 +1354,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:30:41</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44261.77130787037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1431,10 +1423,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-06 15:18:42</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44261.63798611111</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1510,10 +1500,8 @@
           <t>4221397165</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-06 14:05:44</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44261.58731481482</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1577,10 +1565,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:00:07</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44261.50008101852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1648,10 +1634,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:26:36</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44261.43513888889</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1727,10 +1711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-06 00:18:13</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44261.01265046297</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1802,10 +1784,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-06 00:15:41</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44261.0108912037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1873,10 +1853,8 @@
           <t>4224591250</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:18:29</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44260.97116898148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1940,10 +1918,8 @@
           <t>4222257996</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:42:58</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44260.94650462963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2015,10 +1991,8 @@
           <t>4223473777</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:07:12</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44260.88</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2086,10 +2060,8 @@
           <t>4223473777</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:58:47</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44260.87415509259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2161,10 +2133,8 @@
           <t>4223473777</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:56:51</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44260.8728125</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2232,10 +2202,8 @@
           <t>4223473777</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:51:53</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44260.86936342593</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2307,10 +2275,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:40:07</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44260.86119212963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2377,10 +2343,8 @@
           <t>4223677218</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:31:27</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44260.85517361111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2448,10 +2412,8 @@
           <t>4223473777</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:30:59</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44260.85484953703</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2519,10 +2481,8 @@
           <t>4223665256</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:29:06</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44260.85354166666</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2590,10 +2550,8 @@
           <t>4223656303</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:26:58</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44260.85206018519</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2661,10 +2619,8 @@
           <t>4223645038</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:24:13</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44260.85015046296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2740,10 +2696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:16:55</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44260.84508101852</v>
       </c>
       <c r="I32" t="n">
         <v>11</v>
@@ -2819,10 +2773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:02:52</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44260.83532407408</v>
       </c>
       <c r="I33" t="n">
         <v>6</v>
@@ -2894,10 +2846,8 @@
           <t>4223473777</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:51:55</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44260.82771990741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2969,10 +2919,8 @@
           <t>4221254616</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:46:43</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44260.8241087963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3036,10 +2984,8 @@
           <t>4221303964</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:41:33</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44260.82052083333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3107,10 +3053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:29:28</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44260.81212962963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3182,10 +3126,8 @@
           <t>4221369238</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:20:06</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44260.805625</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3249,10 +3191,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:18:50</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44260.80474537037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3324,10 +3264,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:18:18</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44260.804375</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3399,10 +3337,8 @@
           <t>4223268697</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:12:11</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44260.80012731482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3478,10 +3414,8 @@
           <t>4223220173</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:01:20</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44260.7925925926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3545,10 +3479,8 @@
           <t>4223039733</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:28:09</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44260.76954861111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3620,10 +3552,8 @@
           <t>4223042896</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:27:44</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44260.76925925926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3695,10 +3625,8 @@
           <t>4221380367</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:14:28</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44260.76004629629</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3762,10 +3690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:03:05</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44260.7521412037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3833,10 +3759,8 @@
           <t>4221254616</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:54:03</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44260.74586805556</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3912,10 +3836,8 @@
           <t>4222834552</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:47:50</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44260.74155092592</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3987,10 +3909,8 @@
           <t>4222040025</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:45:54</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44260.74020833334</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4062,10 +3982,8 @@
           <t>4221879883</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:43:50</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44260.73877314815</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4141,10 +4059,8 @@
           <t>4222780945</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:34:57</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44260.73260416667</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4208,10 +4124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:30:27</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44260.72947916666</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4285,10 +4199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:30:22</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44260.7294212963</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4356,10 +4268,8 @@
           <t>4221254616</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:25:35</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44260.72609953704</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4423,10 +4333,8 @@
           <t>4221505515</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-05 17:01:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44260.70953703704</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4494,10 +4402,8 @@
           <t>4222621321</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:58:48</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44260.7075</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4561,10 +4467,8 @@
           <t>4222521225</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:30:21</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44260.68774305555</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4640,10 +4544,8 @@
           <t>4221505515</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:24:52</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44260.68393518519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4714,10 +4616,8 @@
           <t>4221505515</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:21:25</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44260.68153935186</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4785,10 +4685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:17:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44260.67854166667</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4864,10 +4762,8 @@
           <t>4221879883</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:17:03</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44260.67850694444</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4943,10 +4839,8 @@
           <t>4222457294</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:14:10</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44260.67650462963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5022,10 +4916,8 @@
           <t>4221449341</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:11:56</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44260.6749537037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5093,10 +4985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:11:03</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44260.67434027778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5164,10 +5054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-05 16:03:56</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44260.66939814815</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5235,10 +5123,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:58:50</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44260.66585648148</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5310,10 +5196,8 @@
           <t>4222394305</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:57:30</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44260.66493055555</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5385,10 +5269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:57:23</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44260.66484953704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5448,10 +5330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:56:11</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44260.6640162037</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5525,10 +5405,8 @@
           <t>4222392264</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:55:31</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44260.66355324074</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5602,10 +5480,8 @@
           <t>4222368818</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:48:49</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44260.65890046296</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5669,10 +5545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:47:56</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44260.65828703704</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5748,10 +5622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:45:47</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44260.65679398148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5819,10 +5691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:38:42</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44260.651875</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5886,10 +5756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:34:54</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44260.64923611111</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5961,10 +5829,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:30:34</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44260.64622685185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6036,10 +5902,8 @@
           <t>4222040025</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:27:34</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44260.64414351852</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6103,10 +5967,8 @@
           <t>4222280543</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:18:18</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44260.63770833334</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6170,10 +6032,8 @@
           <t>4222257996</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:14:41</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44260.63519675926</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6241,10 +6101,8 @@
           <t>4222244314</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:11:08</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44260.63273148148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6316,10 +6174,8 @@
           <t>4222236478</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:05:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44260.6285300926</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6379,10 +6235,8 @@
           <t>4222215568</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:58:48</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44260.62416666667</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6442,10 +6296,8 @@
           <t>4222195336</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:52:45</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44260.61996527778</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6517,10 +6369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:42:42</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44260.61298611111</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6588,10 +6438,8 @@
           <t>4222140253</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:34:10</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44260.60706018518</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6659,10 +6507,8 @@
           <t>4222136312</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:34:10</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44260.60706018518</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6735,10 +6581,8 @@
           <t>4221505515</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:32:55</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44260.60619212963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6806,10 +6650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:29:49</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44260.60403935185</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6885,10 +6727,8 @@
           <t>4221359525</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:29:33</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44260.60385416666</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6952,10 +6792,8 @@
           <t>4221879883</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:20:01</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44260.5972337963</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7031,10 +6869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:19:53</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44260.5971412037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7106,10 +6942,8 @@
           <t>4221395417</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:19:16</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44260.59671296296</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7177,10 +7011,8 @@
           <t>4221263221</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:19:04</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44260.59657407407</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7256,10 +7088,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:14:12</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44260.59319444445</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7335,10 +7165,8 @@
           <t>4222075444</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:13:59</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44260.59304398148</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7406,10 +7234,8 @@
           <t>4222037152</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:02:19</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44260.58494212963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7477,10 +7303,8 @@
           <t>4222040025</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:01:10</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44260.58414351852</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7552,10 +7376,8 @@
           <t>4222030691</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:59:55</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44260.58327546297</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7627,10 +7449,8 @@
           <t>4222026227</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:57:36</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44260.58166666667</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7702,10 +7522,8 @@
           <t>4222009499</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:55:20</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44260.58009259259</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7781,10 +7599,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:54:31</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44260.57952546296</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7857,10 +7673,8 @@
           <t>4221994534</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:50:51</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44260.57697916667</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7936,10 +7750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:48:06</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44260.57506944444</v>
       </c>
       <c r="I103" t="n">
         <v>42</v>
@@ -8015,10 +7827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:46:34</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44260.57400462963</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8086,10 +7896,8 @@
           <t>4221985432</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:45:58</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44260.57358796296</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8165,10 +7973,8 @@
           <t>4221446709</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:42:10</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44260.57094907408</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8240,10 +8046,8 @@
           <t>4221958831</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:40:16</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44260.56962962963</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8319,10 +8123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:38:42</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44260.56854166667</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8386,10 +8188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:35:19</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44260.56619212963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8453,10 +8253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:32:58</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44260.56456018519</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8520,10 +8318,8 @@
           <t>4221309011</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:32:49</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44260.56445601852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8599,10 +8395,8 @@
           <t>4221309011</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:32:23</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44260.56415509259</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8678,10 +8472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:31:38</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44260.56363425926</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8757,10 +8549,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:30:11</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44260.56262731482</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8836,10 +8626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:26:46</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44260.56025462963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8911,10 +8699,8 @@
           <t>4221915504</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:26:39</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44260.56017361111</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8974,10 +8760,8 @@
           <t>4221897639</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:23:26</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44260.55793981482</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9053,10 +8837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:21:16</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44260.55643518519</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9124,10 +8906,8 @@
           <t>4221888279</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:21:07</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44260.55633101852</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9191,10 +8971,8 @@
           <t>4221881544</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:18:53</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44260.55478009259</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9271,10 +9049,8 @@
           <t>4221879883</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:18:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44260.55478009259</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9350,10 +9126,8 @@
           <t>4221880628</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:18:13</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44260.55431712963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9425,10 +9199,8 @@
           <t>4221873428</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:17:33</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44260.55385416667</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9496,10 +9268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:17:13</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44260.55362268518</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9571,10 +9341,8 @@
           <t>4221369238</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:15:06</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44260.55215277777</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9650,10 +9418,8 @@
           <t>4221857718</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:13:30</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44260.55104166667</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9725,10 +9491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:11:08</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44260.54939814815</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9792,10 +9556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:05:18</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44260.54534722222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9863,10 +9625,8 @@
           <t>4221338820</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:04:35</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44260.54484953704</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9942,10 +9702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:04:16</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44260.54462962963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10013,10 +9771,8 @@
           <t>4221799975</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:01:15</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44260.54253472222</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10084,10 +9840,8 @@
           <t>4221798852</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:00:28</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44260.54199074074</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10151,10 +9905,8 @@
           <t>4221369238</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:00:14</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44260.5418287037</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10222,10 +9974,8 @@
           <t>4221793795</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:59:50</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44260.54155092593</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10297,10 +10047,8 @@
           <t>4221505515</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:58:13</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44260.54042824074</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10368,10 +10116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:55:05</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44260.53825231481</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10431,10 +10177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:53:26</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44260.53710648148</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10506,10 +10250,8 @@
           <t>4221763772</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:53:22</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44260.53706018518</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10585,10 +10327,8 @@
           <t>4221309011</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:53:00</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44260.53680555556</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10657,10 +10397,8 @@
           <t>4221369238</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:52:58</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44260.53678240741</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10728,10 +10466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:52:44</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44260.53662037037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10807,10 +10543,8 @@
           <t>4221749780</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:50:54</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44260.53534722222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10882,10 +10616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:50:48</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44260.53527777778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10962,10 +10694,8 @@
           <t>4221309011</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:50:20</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44260.5349537037</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11037,10 +10767,8 @@
           <t>4221757827</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:50:18</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44260.53493055556</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11104,10 +10832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:48:01</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44260.53334490741</v>
       </c>
       <c r="I146" t="n">
         <v>16</v>
@@ -11179,10 +10905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:47:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44260.53300925926</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11258,10 +10982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:46:14</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44260.53210648148</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11331,10 +11053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:45:57</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44260.53190972222</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11406,10 +11126,8 @@
           <t>4221731204</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:45:36</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44260.53166666667</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11478,10 +11196,8 @@
           <t>4221729711</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:45:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44260.53149305555</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11549,10 +11265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:44:45</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44260.53107638889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11628,10 +11342,8 @@
           <t>4221714766</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:42:15</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44260.52934027778</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11707,10 +11419,8 @@
           <t>4221714149</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:41:51</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44260.5290625</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11786,10 +11496,8 @@
           <t>4221309011</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:40:57</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44260.5284375</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11865,10 +11573,8 @@
           <t>4221702612</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:40:10</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44260.52789351852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11940,10 +11646,8 @@
           <t>4221698849</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:38:34</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44260.52678240741</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12007,10 +11711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:37:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44260.52591435185</v>
       </c>
       <c r="I158" t="n">
         <v>21</v>
@@ -12074,10 +11776,8 @@
           <t>4221682405</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:34:29</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44260.52394675926</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12145,10 +11845,8 @@
           <t>4221673353</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:34:07</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44260.52369212963</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12220,10 +11918,8 @@
           <t>4221657786</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:30:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44260.52119212963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12295,10 +11991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:30:05</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44260.52089120371</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12366,10 +12060,8 @@
           <t>4221647910</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:27:58</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44260.5194212963</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12433,10 +12125,8 @@
           <t>4221417880</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:27:28</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44260.51907407407</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12512,10 +12202,8 @@
           <t>4221642396</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:27:03</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44260.51878472222</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12587,10 +12275,8 @@
           <t>4221639760</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:26:29</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44260.5183912037</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12666,10 +12352,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:25:24</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44260.51763888889</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12736,10 +12420,8 @@
           <t>4221633292</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:25:02</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44260.51738425926</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12815,10 +12497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:24:36</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44260.51708333333</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12894,10 +12574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:24:01</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44260.51667824074</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12973,10 +12651,8 @@
           <t>4221626501</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:23:11</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44260.51609953704</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13040,10 +12716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:22:21</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44260.51552083333</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13111,10 +12785,8 @@
           <t>4221618105</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:21:41</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44260.51505787037</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13178,10 +12850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:21:28</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44260.51490740741</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13245,10 +12915,8 @@
           <t>4221369238</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:21:26</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44260.51488425926</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13312,10 +12980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:20:48</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44260.51444444444</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13387,10 +13053,8 @@
           <t>4221475243</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:20:01</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44260.51390046296</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13458,10 +13122,8 @@
           <t>4221604512</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:19:22</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44260.51344907407</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13525,10 +13187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:18:45</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44260.51302083334</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13592,10 +13252,8 @@
           <t>4221607844</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:18:44</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44260.51300925926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13655,10 +13313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:17:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44260.51217592593</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13722,10 +13378,8 @@
           <t>4221596647</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:16:38</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44260.51155092593</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13797,10 +13451,8 @@
           <t>4221589845</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:16:22</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44260.51136574074</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13868,10 +13520,8 @@
           <t>4221584093</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:14:53</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44260.51033564815</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13935,10 +13585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:14:10</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44260.50983796296</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14006,10 +13654,8 @@
           <t>4221585757</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:13:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44260.50951388889</v>
       </c>
       <c r="I186" t="n">
         <v>2</v>
@@ -14085,10 +13731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:13:24</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44260.50930555556</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14156,10 +13800,8 @@
           <t>4221579036</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:12:52</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44260.50893518519</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14223,10 +13865,8 @@
           <t>4221569998</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:12:08</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44260.50842592592</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14290,10 +13930,8 @@
           <t>4221402243</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:11:54</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44260.50826388889</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14369,10 +14007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:10:51</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44260.50753472222</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14444,10 +14080,8 @@
           <t>4221295247</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:10:00</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44260.50694444445</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14515,10 +14149,8 @@
           <t>4221562023</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:08:12</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44260.50569444444</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14586,10 +14218,8 @@
           <t>4221554120</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:08:09</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44260.50565972222</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14665,10 +14295,8 @@
           <t>4221557114</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:08:03</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44260.50559027777</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14740,10 +14368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:06:34</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44260.50456018518</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14820,10 +14446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:06:21</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44260.50440972222</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14892,10 +14516,8 @@
           <t>4221544454</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:06:14</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44260.5043287037</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14967,10 +14589,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:06:05</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44260.50422453704</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15046,10 +14666,8 @@
           <t>4221544074</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:06:00</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44260.50416666667</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15117,10 +14735,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:05:40</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44260.50393518519</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15202,10 +14818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:03:45</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44260.50260416666</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15277,10 +14891,8 @@
           <t>4221389571</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:02:23</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44260.50165509259</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15340,10 +14952,8 @@
           <t>4221533309</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:02:19</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44260.50160879629</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15416,10 +15026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:01:50</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44260.50127314815</v>
       </c>
       <c r="I205" t="n">
         <v>19</v>
@@ -15487,10 +15095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:01:12</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44260.50083333333</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15558,10 +15164,8 @@
           <t>4221530153</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:00:25</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44260.50028935185</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15635,10 +15239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:00:22</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44260.50025462963</v>
       </c>
       <c r="I208" t="n">
         <v>44</v>
@@ -15710,10 +15312,8 @@
           <t>4221522160</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:00:08</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44260.50009259259</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15783,10 +15383,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:57:51</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44260.49850694444</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15860,10 +15458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:57:20</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44260.49814814814</v>
       </c>
       <c r="I211" t="n">
         <v>6</v>
@@ -15927,10 +15523,8 @@
           <t>4221510943</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:57:03</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44260.49795138889</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15998,10 +15592,8 @@
           <t>4221498152</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:54:49</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44260.49640046297</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16066,10 +15658,8 @@
           <t>4221505515</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:54:44</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44260.4963425926</v>
       </c>
       <c r="I214" t="n">
         <v>4</v>
@@ -16137,10 +15727,8 @@
           <t>4221497691</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:54:28</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44260.4961574074</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -16204,10 +15792,8 @@
           <t>4221389571</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:53:56</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44260.49578703703</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16271,10 +15857,8 @@
           <t>4221501768</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:53:46</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44260.4956712963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16350,10 +15934,8 @@
           <t>4221501356</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:53:25</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44260.49542824074</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16417,10 +15999,8 @@
           <t>4221493695</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:53:13</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44260.49528935185</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16484,10 +16064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:53:01</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44260.49515046296</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16559,10 +16137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:52:26</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44260.49474537037</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16634,10 +16210,8 @@
           <t>4221374948</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:52:06</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44260.49451388889</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16701,10 +16275,8 @@
           <t>4221492158</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:51:54</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44260.494375</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16776,10 +16348,8 @@
           <t>4221295247</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:50:50</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44260.49363425926</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16851,10 +16421,8 @@
           <t>4221490832</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:50:49</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44260.49362268519</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16918,10 +16486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:50:33</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44260.4934375</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16998,10 +16564,8 @@
           <t>4221487721</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:50:29</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44260.4933912037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17069,10 +16633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:49:52</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44260.49296296296</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17148,10 +16710,8 @@
           <t>4221481897</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:49:48</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44260.49291666667</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17215,10 +16775,8 @@
           <t>4221481860</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:49:46</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44260.49289351852</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17282,10 +16840,8 @@
           <t>4221417880</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:49</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44260.4922337963</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17353,10 +16909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:47</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44260.49221064815</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17428,10 +16982,8 @@
           <t>4221480465</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:36</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44260.49208333333</v>
       </c>
       <c r="I233" t="n">
         <v>5</v>
@@ -17503,10 +17055,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:24</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44260.49194444445</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17566,10 +17116,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:22</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44260.4919212963</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17633,10 +17181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:19</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44260.49188657408</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17706,10 +17252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:12</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44260.49180555555</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17773,10 +17317,8 @@
           <t>4221474873</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:10</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44260.49178240741</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17853,10 +17395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:48:00</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44260.49166666667</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17932,10 +17472,8 @@
           <t>4221474280</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:47:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44260.49144675926</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18011,10 +17549,8 @@
           <t>4221469171</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:47:31</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44260.49133101852</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18078,10 +17614,8 @@
           <t>4221473688</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:47:11</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44260.49109953704</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18145,10 +17679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:47:03</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44260.49100694444</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18224,10 +17756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:46:48</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44260.49083333334</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18295,10 +17825,8 @@
           <t>4221475936</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:46:46</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44260.49081018518</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18370,10 +17898,8 @@
           <t>4221467910</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:46:29</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44260.49061342593</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18441,10 +17967,8 @@
           <t>4221467860</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:46:26</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44260.49057870371</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18512,10 +18036,8 @@
           <t>4221475243</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:46:10</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44260.49039351852</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18591,10 +18113,8 @@
           <t>4221464728</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:45:46</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44260.49011574074</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18670,10 +18190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:45:28</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44260.48990740741</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18749,10 +18267,8 @@
           <t>4221464277</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:45:23</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44260.48984953704</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18828,10 +18344,8 @@
           <t>4221464149</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:45:17</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44260.48978009259</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18903,10 +18417,8 @@
           <t>4221454882</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:43:54</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44260.48881944444</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18982,10 +18494,8 @@
           <t>4221454506</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:43:34</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44260.48858796297</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19061,10 +18571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:43:20</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44260.48842592593</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19136,10 +18644,8 @@
           <t>4221453720</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:42:54</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44260.488125</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19203,10 +18709,8 @@
           <t>4221458069</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:42:26</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44260.48780092593</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19282,10 +18786,8 @@
           <t>4221460600</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:42:16</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44260.48768518519</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19357,10 +18859,8 @@
           <t>4221457204</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:41:41</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44260.4872800926</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19436,10 +18936,8 @@
           <t>4221451882</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:41:20</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44260.48703703703</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19511,10 +19009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:41:11</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44260.48693287037</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19591,10 +19087,8 @@
           <t>4221449341</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:41:11</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44260.48693287037</v>
       </c>
       <c r="I262" t="n">
         <v>7</v>
@@ -19670,10 +19164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:41:02</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44260.4868287037</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19749,10 +19241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:40:39</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44260.4865625</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19824,10 +19314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:39:48</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44260.48597222222</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19899,10 +19387,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:39:35</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44260.48582175926</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19980,10 +19466,8 @@
           <t>4221446709</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:38:58</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44260.48539351852</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20059,10 +19543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:38:39</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44260.48517361111</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20138,10 +19620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:38:19</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44260.48494212963</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20205,10 +19685,8 @@
           <t>4221442620</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:37:44</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44260.48453703704</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20284,10 +19762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:36:57</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44260.48399305555</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20360,10 +19836,8 @@
           <t>4221338820</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:36:53</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44260.48394675926</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20431,10 +19905,8 @@
           <t>4221441530</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:36:48</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44260.48388888889</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20506,10 +19978,8 @@
           <t>4221441289</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:36:34</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44260.48372685185</v>
       </c>
       <c r="I274" t="n">
         <v>5</v>
@@ -20577,10 +20047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:36:03</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44260.48336805555</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20648,10 +20116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:35:56</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44260.48328703704</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20727,10 +20193,8 @@
           <t>4221426117</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:35:44</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44260.48314814815</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20794,10 +20258,8 @@
           <t>4221424713</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:35:13</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44260.48278935185</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20861,10 +20323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:34:36</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44260.48236111111</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20932,10 +20392,8 @@
           <t>4221374948</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:34:27</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44260.48225694444</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -21011,10 +20469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:33:58</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44260.4819212963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21090,10 +20546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:33:55</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44260.48188657407</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21157,10 +20611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:33:24</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44260.48152777777</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21236,10 +20688,8 @@
           <t>4221422613</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:33:24</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44260.48152777777</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21315,10 +20765,8 @@
           <t>4221430096</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:33:15</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44260.48142361111</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21382,10 +20830,8 @@
           <t>4221430040</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:33:13</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44260.48140046297</v>
       </c>
       <c r="I286" t="n">
         <v>3</v>
@@ -21453,10 +20899,8 @@
           <t>4221422091</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:57</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44260.48121527778</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21525,10 +20969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:54</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44260.48118055556</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21588,10 +21030,8 @@
           <t>4221426232</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:18</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44260.48076388889</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21659,10 +21099,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:17</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44260.48075231481</v>
       </c>
       <c r="I290" t="n">
         <v>4</v>
@@ -21730,10 +21168,8 @@
           <t>4221426117</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:13</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44260.48070601852</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21801,10 +21237,8 @@
           <t>4221421136</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:07</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44260.48063657407</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21872,10 +21306,8 @@
           <t>4221421065</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:03</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44260.48059027778</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21939,10 +21371,8 @@
           <t>4221418637</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:32:01</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44260.48056712963</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22010,10 +21440,8 @@
           <t>4221420926</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:57</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44260.48052083333</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22081,10 +21509,8 @@
           <t>4221418554</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:57</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44260.48052083333</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22160,10 +21586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:50</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44260.48043981481</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22231,10 +21655,8 @@
           <t>4221417933</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:26</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44260.48016203703</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22310,10 +21732,8 @@
           <t>4221417880</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:23</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44260.48012731481</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22389,10 +21809,8 @@
           <t>4221417515</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:05</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44260.47991898148</v>
       </c>
       <c r="I300" t="n">
         <v>5</v>
@@ -22460,10 +21878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:01</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44260.47987268519</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22539,10 +21955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:30:58</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44260.47983796296</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22622,10 +22036,8 @@
           <t>4221414466</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:30:52</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44260.47976851852</v>
       </c>
       <c r="I303" t="n">
         <v>8</v>
@@ -22689,10 +22101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:30:40</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44260.47962962963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22756,10 +22166,8 @@
           <t>4221413958</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:30:26</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44260.4794675926</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22823,10 +22231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:30:20</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44260.47939814815</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22890,10 +22296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:30:11</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44260.47929398148</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22965,10 +22369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:29:57</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44260.47913194444</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23036,10 +22438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:29:44</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44260.47898148148</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23115,10 +22515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:29:09</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44260.47857638889</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23194,10 +22592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:28:56</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44260.47842592592</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23261,10 +22657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:28:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44260.47841435186</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23328,10 +22722,8 @@
           <t>4221406800</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:28:20</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44260.47800925926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23403,10 +22795,8 @@
           <t>4221411332</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:28:07</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44260.47785879629</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23482,10 +22872,8 @@
           <t>4221406500</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:28:04</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44260.47782407407</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23557,10 +22945,8 @@
           <t>4221397165</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:27:35</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44260.47748842592</v>
       </c>
       <c r="I316" t="n">
         <v>2</v>
@@ -23624,10 +23010,8 @@
           <t>4221405729</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:27:22</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44260.47733796296</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23703,10 +23087,8 @@
           <t>4221254616</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:27:19</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44260.47730324074</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23782,10 +23164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:27:18</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44260.47729166667</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23849,10 +23229,8 @@
           <t>4221403233</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:27:13</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44260.47723379629</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23916,10 +23294,8 @@
           <t>4221405247</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:26:55</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44260.47702546296</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23996,10 +23372,8 @@
           <t>4221405047</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:26:46</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44260.47692129629</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -24071,10 +23445,8 @@
           <t>4221254361</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:26:38</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44260.4768287037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24150,10 +23522,8 @@
           <t>4221402243</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:26:20</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44260.47662037037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24221,10 +23591,8 @@
           <t>4221398878</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:25:55</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44260.47633101852</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24292,10 +23660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:25:32</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44260.47606481481</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24371,10 +23737,8 @@
           <t>4221392898</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:24:47</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44260.47554398148</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24446,10 +23810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:24:23</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44260.47526620371</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24514,10 +23876,8 @@
           <t>4221397165</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:24:19</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44260.47521990741</v>
       </c>
       <c r="I329" t="n">
         <v>33</v>
@@ -24585,10 +23945,8 @@
           <t>4221376706</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:24:17</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44260.47519675926</v>
       </c>
       <c r="I330" t="n">
         <v>11</v>
@@ -24656,10 +24014,8 @@
           <t>4221389571</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:23:54</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44260.47493055555</v>
       </c>
       <c r="I331" t="n">
         <v>11</v>
@@ -24731,10 +24087,8 @@
           <t>4221373514</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:23:42</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44260.47479166667</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24810,10 +24164,8 @@
           <t>4221389137</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:23:31</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44260.47466435185</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24881,10 +24233,8 @@
           <t>4221396124</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:23:24</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44260.47458333334</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -24960,10 +24310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:23:02</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44260.47432870371</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25039,10 +24387,8 @@
           <t>4221390775</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:22:48</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44260.47416666667</v>
       </c>
       <c r="I336" t="n">
         <v>2</v>
@@ -25114,10 +24460,8 @@
           <t>4221395417</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:22:45</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44260.47413194444</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25187,10 +24531,8 @@
           <t>4221390619</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:22:40</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44260.47407407407</v>
       </c>
       <c r="I338" t="n">
         <v>39</v>
@@ -25258,10 +24600,8 @@
           <t>4221390608</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:22:39</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44260.4740625</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25337,10 +24677,8 @@
           <t>4221373039</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:22:38</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44260.47405092593</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25404,10 +24742,8 @@
           <t>4221387670</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:22:13</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44260.47376157407</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25483,10 +24819,8 @@
           <t>4221379958</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:22:03</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44260.47364583334</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25554,10 +24888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:55</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44260.47355324074</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25625,10 +24957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:52</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44260.47351851852</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25700,10 +25030,8 @@
           <t>4221295247</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:46</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44260.47344907407</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25775,10 +25103,8 @@
           <t>4221373894</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:31</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44260.47327546297</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25842,10 +25168,8 @@
           <t>4221386827</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:25</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44260.47320601852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25909,10 +25233,8 @@
           <t>4221374948</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:21</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44260.47315972222</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25976,10 +25298,8 @@
           <t>4221386740</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:20</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44260.47314814815</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26039,10 +25359,8 @@
           <t>4221295247</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:21:06</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44260.47298611111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26119,10 +25437,8 @@
           <t>4221322328</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:20:49</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44260.47278935185</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26186,10 +25502,8 @@
           <t>4221378380</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:20:37</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44260.47265046297</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26249,10 +25563,8 @@
           <t>4221378229</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:20:29</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44260.47255787037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26324,10 +25636,8 @@
           <t>4221378085</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:20:21</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44260.47246527778</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26399,10 +25709,8 @@
           <t>4221382788</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:20:21</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44260.47246527778</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26476,10 +25784,8 @@
           <t>4221374948</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:19:40</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44260.47199074074</v>
       </c>
       <c r="I356" t="n">
         <v>17</v>
@@ -26556,10 +25862,8 @@
           <t>4221377180</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:19:30</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44260.471875</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -26638,10 +25942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:19:29</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44260.47186342593</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26710,10 +26012,8 @@
           <t>4221374672</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:19:23</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44260.47179398148</v>
       </c>
       <c r="I359" t="n">
         <v>334</v>
@@ -26789,10 +26089,8 @@
           <t>4221381720</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:19:22</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44260.47178240741</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26864,10 +26162,8 @@
           <t>4221283355</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:19:13</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44260.47167824074</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26939,10 +26235,8 @@
           <t>4221376706</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:19:03</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44260.4715625</v>
       </c>
       <c r="I362" t="n">
         <v>10</v>
@@ -27006,10 +26300,8 @@
           <t>4221373894</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:18:38</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44260.47127314815</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -27077,10 +26369,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:18:28</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44260.47115740741</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27148,10 +26438,8 @@
           <t>4221373514</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:18:19</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44260.47105324074</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27219,10 +26507,8 @@
           <t>4221380367</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:18:08</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44260.47092592593</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27299,10 +26585,8 @@
           <t>4221375695</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:18:04</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44260.47087962963</v>
       </c>
       <c r="I367" t="n">
         <v>4</v>
@@ -27370,10 +26654,8 @@
           <t>4221375698</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:18:04</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44260.47087962963</v>
       </c>
       <c r="I368" t="n">
         <v>7</v>
@@ -27441,10 +26723,8 @@
           <t>4221380190</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:58</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44260.47081018519</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27516,10 +26796,8 @@
           <t>4221373039</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:52</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44260.47074074074</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27591,10 +26869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:51</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44260.47072916666</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27666,10 +26942,8 @@
           <t>4221375370</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:45</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44260.47065972222</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27745,10 +27019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:43</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44260.47063657407</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27820,10 +27092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:31</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44260.47049768519</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27899,10 +27169,8 @@
           <t>4221372663</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:31</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44260.47049768519</v>
       </c>
       <c r="I375" t="n">
         <v>12</v>
@@ -27978,10 +27246,8 @@
           <t>4221369649</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:30</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44260.47048611111</v>
       </c>
       <c r="I376" t="n">
         <v>18</v>
@@ -28049,10 +27315,8 @@
           <t>4221372425</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:17</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44260.47033564815</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28116,10 +27380,8 @@
           <t>4221372352</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:13</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44260.47028935186</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28187,10 +27449,8 @@
           <t>4221369238</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:17:07</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44260.47021990741</v>
       </c>
       <c r="I379" t="n">
         <v>26</v>
@@ -28262,10 +27522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:16:41</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44260.46991898148</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28333,10 +27591,8 @@
           <t>4221371708</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:16:39</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44260.46989583333</v>
       </c>
       <c r="I381" t="n">
         <v>7</v>
@@ -28408,10 +27664,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:16:38</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44260.46988425926</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28483,10 +27737,8 @@
           <t>4221368527</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:16:26</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44260.46974537037</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28554,10 +27806,8 @@
           <t>4221370581</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:15:39</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44260.46920138889</v>
       </c>
       <c r="I384" t="n">
         <v>16</v>
@@ -28621,10 +27871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:15:26</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44260.46905092592</v>
       </c>
       <c r="I385" t="n">
         <v>16</v>
@@ -28700,10 +27948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:15:23</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44260.4690162037</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28775,10 +28021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:15:21</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44260.46899305555</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28846,10 +28090,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:15:09</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44260.46885416667</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28921,10 +28163,8 @@
           <t>4221359640</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:49</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44260.46862268518</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28992,10 +28232,8 @@
           <t>4221362091</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:46</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44260.46858796296</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29063,10 +28301,8 @@
           <t>4221359543</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:44</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44260.46856481482</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29130,10 +28366,8 @@
           <t>4221359525</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:42</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44260.46854166667</v>
       </c>
       <c r="I392" t="n">
         <v>102</v>
@@ -29205,10 +28439,8 @@
           <t>4221366405</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:33</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44260.4684375</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29284,10 +28516,8 @@
           <t>4221366384</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:31</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44260.46841435185</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29359,10 +28589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:24</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44260.46833333333</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29426,10 +28654,8 @@
           <t>4221361525</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:14</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44260.46821759259</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29501,10 +28727,8 @@
           <t>4221361497</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:12</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44260.46819444445</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29580,10 +28804,8 @@
           <t>4221358962</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:11</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44260.46818287037</v>
       </c>
       <c r="I398" t="n">
         <v>12</v>
@@ -29651,10 +28873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:06</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44260.468125</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29730,10 +28950,8 @@
           <t>4221365919</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:03</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44260.46809027778</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29797,10 +29015,8 @@
           <t>4221263221</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:14:01</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44260.46806712963</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29872,10 +29088,8 @@
           <t>4221360964</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:13:43</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44260.4678587963</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29951,10 +29165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:13:28</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44260.46768518518</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30030,10 +29242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:13:04</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44260.46740740741</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30101,10 +29311,8 @@
           <t>4221357544</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:12:53</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44260.46728009259</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30172,10 +29380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:12:09</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44260.46677083334</v>
       </c>
       <c r="I406" t="n">
         <v>3</v>
@@ -30243,10 +29449,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:11:52</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44260.46657407407</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30314,10 +29518,8 @@
           <t>4221348487</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:11:28</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44260.4662962963</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -30377,10 +29579,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:11:13</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44260.46612268518</v>
       </c>
       <c r="I409" t="n">
         <v>6</v>
@@ -30452,10 +29652,8 @@
           <t>4221303964</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:11:04</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44260.46601851852</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30519,10 +29717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:10:54</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44260.46590277777</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30598,10 +29794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:10:44</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44260.46578703704</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30665,10 +29859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:10:34</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44260.4656712963</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30744,10 +29936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:10:26</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44260.4655787037</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30815,10 +30005,8 @@
           <t>4221346702</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:09:46</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44260.46511574074</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30894,10 +30082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:09:37</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44260.46501157407</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30961,10 +30147,8 @@
           <t>4221350977</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:09:26</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44260.46488425926</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31040,10 +30224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:09:22</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44260.46483796297</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31107,10 +30289,8 @@
           <t>4221350535</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:09:00</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44260.46458333333</v>
       </c>
       <c r="I419" t="n">
         <v>4</v>
@@ -31186,10 +30366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:08:50</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44260.4644675926</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31265,10 +30443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:08:00</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44260.46388888889</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31336,10 +30512,8 @@
           <t>4221338820</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:07:22</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44260.46344907407</v>
       </c>
       <c r="I422" t="n">
         <v>32</v>
@@ -31399,10 +30573,8 @@
           <t>4221341274</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:07:07</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44260.46327546296</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31474,10 +30646,8 @@
           <t>4221341080</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:06:57</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44260.46315972223</v>
       </c>
       <c r="I424" t="n">
         <v>15</v>
@@ -31549,10 +30719,8 @@
           <t>4221333754</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:06:56</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44260.46314814815</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31624,10 +30792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:06:44</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44260.46300925926</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31695,10 +30861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:06:27</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44260.4628125</v>
       </c>
       <c r="I427" t="n">
         <v>4</v>
@@ -31775,10 +30939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:05:33</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44260.4621875</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31854,10 +31016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:05:30</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44260.46215277778</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31929,10 +31089,8 @@
           <t>4221329334</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:05:18</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44260.46201388889</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32009,10 +31167,8 @@
           <t>4221303964</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:04:28</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44260.46143518519</v>
       </c>
       <c r="I431" t="n">
         <v>12</v>
@@ -32076,10 +31232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:04:19</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44260.46133101852</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32147,10 +31301,8 @@
           <t>4221330706</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:04:06</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44260.46118055555</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32214,10 +31366,8 @@
           <t>4221327564</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:03:40</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44260.46087962963</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32289,10 +31439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:03:30</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44260.46076388889</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32357,10 +31505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:03:27</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44260.46072916667</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32436,10 +31582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:02:34</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44260.46011574074</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32507,10 +31651,8 @@
           <t>4221326039</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:02:15</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44260.45989583333</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32586,10 +31728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:02:02</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44260.45974537037</v>
       </c>
       <c r="I439" t="n">
         <v>3</v>
@@ -32658,10 +31798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:01:54</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44260.45965277778</v>
       </c>
       <c r="I440" t="n">
         <v>979</v>
@@ -32725,10 +31863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:01:41</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44260.45950231481</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32800,10 +31936,8 @@
           <t>4221322711</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:01:40</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44260.45949074074</v>
       </c>
       <c r="I442" t="n">
         <v>2</v>
@@ -32880,10 +32014,8 @@
           <t>4221322328</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:01:19</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44260.45924768518</v>
       </c>
       <c r="I443" t="n">
         <v>7</v>
@@ -32947,10 +32079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:01:17</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44260.45922453704</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33018,10 +32148,8 @@
           <t>4221314919</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:01:13</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44260.45917824074</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33097,10 +32225,8 @@
           <t>4221314502</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:00:51</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44260.45892361111</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33172,10 +32298,8 @@
           <t>4221317087</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:00:46</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44260.45886574074</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33247,10 +32371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:00:38</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44260.45877314815</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33310,10 +32432,8 @@
           <t>4221321434</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:00:29</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44260.45866898148</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33385,10 +32505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:00:27</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44260.45864583334</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33464,10 +32582,8 @@
           <t>4221304164</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:00:06</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44260.45840277777</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33543,10 +32659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:42</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44260.458125</v>
       </c>
       <c r="I452" t="n">
         <v>4</v>
@@ -33610,10 +32724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:40</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44260.45810185185</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33677,10 +32789,8 @@
           <t>4221313320</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:40</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44260.45810185185</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33756,10 +32866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:24</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44260.45791666667</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33823,10 +32931,8 @@
           <t>4221304164</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:18</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44260.45784722222</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33894,10 +33000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:17</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44260.45783564815</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33973,10 +33077,8 @@
           <t>4221312772</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:08</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44260.45773148148</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34052,10 +33154,8 @@
           <t>4221304164</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:07</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44260.4577199074</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -34123,10 +33223,8 @@
           <t>4221312730</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:06</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44260.45770833334</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34194,10 +33292,8 @@
           <t>4221312722</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:05</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44260.45769675926</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34261,10 +33357,8 @@
           <t>4221315363</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:59:04</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44260.45768518518</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34336,10 +33430,8 @@
           <t>4221309777</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:51</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44260.45753472222</v>
       </c>
       <c r="I463" t="n">
         <v>2</v>
@@ -34407,10 +33499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:51</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44260.45753472222</v>
       </c>
       <c r="I464" t="n">
         <v>15</v>
@@ -34479,10 +33569,8 @@
           <t>4221315080</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:47</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44260.45748842593</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34550,10 +33638,8 @@
           <t>4221311987</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:23</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44260.45721064815</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34622,10 +33708,8 @@
           <t>4221309238</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:19</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44260.45716435185</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34697,10 +33781,8 @@
           <t>4221309194</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:17</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44260.4571412037</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34772,10 +33854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:16</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44260.45712962963</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -34852,10 +33932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:08</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44260.45703703703</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34931,10 +34009,8 @@
           <t>4221309046</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:08</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44260.45703703703</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -35003,10 +34079,8 @@
           <t>4221304419</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:07</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44260.45702546297</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35082,10 +34156,8 @@
           <t>4221309011</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:58:06</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44260.45701388889</v>
       </c>
       <c r="I473" t="n">
         <v>9</v>
@@ -35157,10 +34229,8 @@
           <t>4221311483</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:55</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44260.45688657407</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35237,10 +34307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:54</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44260.456875</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35300,10 +34368,8 @@
           <t>4221311436</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:52</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44260.45685185185</v>
       </c>
       <c r="I476" t="n">
         <v>4</v>
@@ -35372,10 +34438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:46</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44260.4567824074</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35451,10 +34515,8 @@
           <t>4221303964</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:39</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44260.45670138889</v>
       </c>
       <c r="I478" t="n">
         <v>39</v>
@@ -35522,10 +34584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:33</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44260.45663194444</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35594,10 +34654,8 @@
           <t>4221303858</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:33</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44260.45663194444</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35674,10 +34732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:32</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44260.45662037037</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35746,10 +34802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:28</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44260.45657407407</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35821,10 +34875,8 @@
           <t>4221308267</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:24</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44260.45652777778</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35888,10 +34940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:21</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44260.45649305556</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35959,10 +35009,8 @@
           <t>4221274549</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:57:13</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44260.45640046296</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36038,10 +35086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:56:16</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44260.45574074074</v>
       </c>
       <c r="I486" t="n">
         <v>811</v>
@@ -36117,10 +35163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:56:10</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44260.45567129629</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36188,10 +35232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:55:50</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44260.45543981482</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36267,10 +35309,8 @@
           <t>4221298658</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:55:11</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44260.45498842592</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36346,10 +35386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:54:50</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44260.45474537037</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36425,10 +35463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:54:45</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44260.4546875</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36492,10 +35528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:54:44</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44260.45467592592</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36571,10 +35605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:54:25</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44260.45445601852</v>
       </c>
       <c r="I493" t="n">
         <v>217</v>
@@ -36638,10 +35670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:54:21</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44260.45440972222</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36713,10 +35743,8 @@
           <t>4221296934</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:53:33</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44260.45385416667</v>
       </c>
       <c r="I495" t="n">
         <v>3</v>
@@ -36780,10 +35808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:53:20</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44260.4537037037</v>
       </c>
       <c r="I496" t="n">
         <v>95</v>
@@ -36851,10 +35877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:53:02</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44260.45349537037</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36926,10 +35950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:53:02</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44260.45349537037</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36989,10 +36011,8 @@
           <t>4221296444</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:53:02</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44260.45349537037</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -37068,10 +36088,8 @@
           <t>4221296447</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:53:02</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44260.45349537037</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37143,10 +36161,8 @@
           <t>4221293632</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:52:57</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44260.4534375</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37210,10 +36226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:52:51</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44260.45336805555</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37277,10 +36291,8 @@
           <t>4221295835</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:52:25</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44260.45306712963</v>
       </c>
       <c r="I503" t="n">
         <v>15</v>
@@ -37348,10 +36360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:52:12</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44260.45291666667</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37415,10 +36425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:52:10</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44260.45289351852</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37482,10 +36490,8 @@
           <t>4221292713</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:52:02</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44260.45280092592</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37561,10 +36567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:52:00</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44260.45277777778</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37640,10 +36644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:55</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44260.45271990741</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37719,10 +36721,8 @@
           <t>4221295247</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:51</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44260.45267361111</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37790,10 +36790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:46</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44260.45261574074</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37869,10 +36867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:43</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44260.45258101852</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37940,10 +36936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:36</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44260.4525</v>
       </c>
       <c r="I512" t="n">
         <v>8</v>
@@ -38019,10 +37013,8 @@
           <t>4221284665</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:16</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44260.45226851852</v>
       </c>
       <c r="I513" t="n">
         <v>9</v>
@@ -38098,10 +37090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:13</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44260.4522337963</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38173,10 +37163,8 @@
           <t>4221284543</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:51:09</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44260.4521875</v>
       </c>
       <c r="I515" t="n">
         <v>2</v>
@@ -38248,10 +37236,8 @@
           <t>4221291607</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:50:56</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44260.45203703704</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38315,10 +37301,8 @@
           <t>4221287153</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:50:54</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44260.45201388889</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38394,10 +37378,8 @@
           <t>4221284169</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:50:46</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44260.4519212963</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38469,10 +37451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:50:41</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44260.45186342593</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38536,10 +37516,8 @@
           <t>4221283355</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:49:59</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44260.45137731481</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38615,10 +37593,8 @@
           <t>4221286186</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:49:54</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44260.45131944444</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38682,10 +37658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:49:44</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44260.45120370371</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38757,10 +37731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:49:20</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44260.45092592593</v>
       </c>
       <c r="I523" t="n">
         <v>7</v>
@@ -38832,10 +37804,8 @@
           <t>4221282100</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:44</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44260.45050925926</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38899,10 +37869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:30</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44260.45034722222</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38978,10 +37946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:25</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44260.45028935185</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -39057,10 +38023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:16</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44260.45018518518</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39132,10 +38096,8 @@
           <t>4221274549</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:13</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44260.45015046297</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39195,10 +38157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:08</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44260.45009259259</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39266,10 +38226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:07</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44260.45008101852</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39337,10 +38295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:06</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44260.45006944444</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39416,10 +38372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:48:06</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44260.45006944444</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39491,10 +38445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:54</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44260.44993055556</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39554,10 +38506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:50</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44260.44988425926</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39633,10 +38583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:49</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44260.44987268518</v>
       </c>
       <c r="I535" t="n">
         <v>55</v>
@@ -39715,10 +38663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:41</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44260.44978009259</v>
       </c>
       <c r="I536" t="n">
         <v>608</v>
@@ -39782,10 +38728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:28</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44260.44962962963</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39857,10 +38801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:21</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44260.44954861111</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39936,10 +38878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:16</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44260.44949074074</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40003,10 +38943,8 @@
           <t>4221280560</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:13</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44260.44945601852</v>
       </c>
       <c r="I540" t="n">
         <v>3</v>
@@ -40078,10 +39016,8 @@
           <t>4221269836</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:07</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44260.44938657407</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -40145,10 +39081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:47:05</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44260.44936342593</v>
       </c>
       <c r="I542" t="n">
         <v>2</v>
@@ -40226,10 +39160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:42</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44260.44909722222</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40293,10 +39225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:42</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44260.44909722222</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40364,10 +39294,8 @@
           <t>4221272959</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:40</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44260.44907407407</v>
       </c>
       <c r="I545" t="n">
         <v>3</v>
@@ -40443,10 +39371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:38</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44260.44905092593</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40518,10 +39444,8 @@
           <t>4221269836</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:31</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44260.4489699074</v>
       </c>
       <c r="I547" t="n">
         <v>3</v>
@@ -40585,10 +39509,8 @@
           <t>4221272771</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:28</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44260.44893518519</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40653,10 +39575,8 @@
           <t>4221269438</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:08</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44260.4487037037</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40732,10 +39652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:06</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44260.44868055556</v>
       </c>
       <c r="I550" t="n">
         <v>1</v>
@@ -40799,10 +39717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:06</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44260.44868055556</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40878,10 +39794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:46:06</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44260.44868055556</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40957,10 +39871,8 @@
           <t>4221272255</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:45:56</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44260.44856481482</v>
       </c>
       <c r="I553" t="n">
         <v>48</v>
@@ -41028,10 +39940,8 @@
           <t>4221276241</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:45:34</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44260.44831018519</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41099,10 +40009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:45:18</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44260.448125</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41174,10 +40082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:45:14</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44260.4480787037</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41253,10 +40159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:45:06</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44260.44798611111</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41328,10 +40232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:45:01</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44260.44792824074</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41399,10 +40301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:58</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44260.44789351852</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41470,10 +40370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:52</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44260.44782407407</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41541,10 +40439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:49</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44260.44778935185</v>
       </c>
       <c r="I561" t="n">
         <v>20</v>
@@ -41608,10 +40504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:47</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44260.4477662037</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41679,10 +40573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:45</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44260.44774305556</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41754,10 +40646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:40</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44260.44768518519</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41833,10 +40723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:39</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44260.44767361111</v>
       </c>
       <c r="I565" t="n">
         <v>61</v>
@@ -41908,10 +40796,8 @@
           <t>4221254361</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:36</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44260.44763888889</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41983,10 +40869,8 @@
           <t>4221259847</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:32</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44260.44759259259</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -42054,10 +40938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:28</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44260.44754629629</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -42125,10 +41007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:25</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44260.44751157407</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42204,10 +41084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:19</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44260.44744212963</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42283,10 +41161,8 @@
           <t>4221270667</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:18</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44260.44743055556</v>
       </c>
       <c r="I571" t="n">
         <v>3</v>
@@ -42362,10 +41238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:06</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44260.44729166666</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42433,10 +41307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:01</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44260.44723379629</v>
       </c>
       <c r="I573" t="n">
         <v>99</v>
@@ -42512,10 +41384,8 @@
           <t>4221259512</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:44:01</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44260.44723379629</v>
       </c>
       <c r="I574" t="n">
         <v>18</v>
@@ -42583,10 +41453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:46</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44260.44706018519</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42662,10 +41530,8 @@
           <t>4221259847</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:29</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44260.44686342592</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42729,10 +41595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:23</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44260.44679398148</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42796,10 +41660,8 @@
           <t>4221263221</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:23</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44260.44679398148</v>
       </c>
       <c r="I578" t="n">
         <v>20</v>
@@ -42867,10 +41729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:18</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44260.44673611111</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42947,10 +41807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:18</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44260.44673611111</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -43018,10 +41876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:16</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44260.44671296296</v>
       </c>
       <c r="I581" t="n">
         <v>3</v>
@@ -43093,10 +41949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:12</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44260.44666666666</v>
       </c>
       <c r="I582" t="n">
         <v>1</v>
@@ -43172,10 +42026,8 @@
           <t>4221259512</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:43:05</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44260.44658564815</v>
       </c>
       <c r="I583" t="n">
         <v>22</v>
@@ -43251,10 +42103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:56</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44260.44648148148</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43330,10 +42180,8 @@
           <t>4221259312</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:53</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44260.44644675926</v>
       </c>
       <c r="I585" t="n">
         <v>2</v>
@@ -43409,10 +42257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:52</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44260.44643518519</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43476,10 +42322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:43</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44260.44633101852</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43543,10 +42387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:39</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44260.44628472222</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43614,10 +42456,8 @@
           <t>4221263221</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:34</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44260.44622685185</v>
       </c>
       <c r="I589" t="n">
         <v>3</v>
@@ -43685,10 +42525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:33</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44260.44621527778</v>
       </c>
       <c r="I590" t="n">
         <v>8</v>
@@ -43756,10 +42594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:32</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44260.4462037037</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43827,10 +42663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:31</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44260.44619212963</v>
       </c>
       <c r="I592" t="n">
         <v>6</v>
@@ -43906,10 +42740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:13</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44260.44598379629</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43985,10 +42817,8 @@
           <t>4221262875</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:13</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44260.44598379629</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44064,10 +42894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:12</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44260.44597222222</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44143,10 +42971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:42:09</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44260.4459375</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44222,10 +43048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:59</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44260.44582175926</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -44297,10 +43121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:57</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44260.44579861111</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -44376,10 +43198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:54</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44260.44576388889</v>
       </c>
       <c r="I599" t="n">
         <v>510</v>
@@ -44443,10 +43263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:53</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44260.44575231482</v>
       </c>
       <c r="I600" t="n">
         <v>5</v>
@@ -44522,10 +43340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:52</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44260.44574074074</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44598,10 +43414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:47</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44260.44568287037</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44665,10 +43479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:46</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44260.44567129629</v>
       </c>
       <c r="I603" t="n">
         <v>389</v>
@@ -44732,10 +43544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:40</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44260.44560185185</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44803,10 +43613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:39</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44260.44559027778</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44874,10 +43682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:39</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44260.44559027778</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44953,10 +43759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:39</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44260.44559027778</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -45033,10 +43837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:36</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44260.44555555555</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -45112,10 +43914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:31</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44260.44549768518</v>
       </c>
       <c r="I609" t="n">
         <v>60</v>
@@ -45183,10 +43983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:27</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44260.44545138889</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -45258,10 +44056,8 @@
           <t>4221262059</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:25</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44260.44542824074</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45337,10 +44133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:19</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44260.4453587963</v>
       </c>
       <c r="I612" t="n">
         <v>3</v>
@@ -45416,10 +44210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:17</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44260.44533564815</v>
       </c>
       <c r="I613" t="n">
         <v>10</v>
@@ -45495,10 +44287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:16</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44260.44532407408</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45566,10 +44356,8 @@
           <t>4221254616</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:14</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44260.44530092592</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45645,10 +44433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:12</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44260.44527777778</v>
       </c>
       <c r="I616" t="n">
         <v>1</v>
@@ -45716,10 +44502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:12</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44260.44527777778</v>
       </c>
       <c r="I617" t="n">
         <v>2322</v>
@@ -45787,10 +44571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:11</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44260.4452662037</v>
       </c>
       <c r="I618" t="n">
         <v>5</v>
@@ -45866,10 +44648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:41:00</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44260.44513888889</v>
       </c>
       <c r="I619" t="n">
         <v>5</v>
@@ -45945,10 +44725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:58</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44260.44511574074</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
@@ -46024,10 +44802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:58</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44260.44511574074</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -46095,10 +44871,8 @@
           <t>4221254361</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:58</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44260.44511574074</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46174,10 +44948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:56</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44260.44509259259</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46245,10 +45017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:53</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44260.44505787037</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46316,10 +45086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:53</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44260.44505787037</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46383,10 +45151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:52</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44260.4450462963</v>
       </c>
       <c r="I626" t="n">
         <v>1</v>
@@ -46458,10 +45224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:52</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44260.4450462963</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46537,10 +45301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:50</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44260.44502314815</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46612,10 +45374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:50</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44260.44502314815</v>
       </c>
       <c r="I629" t="n">
         <v>5</v>
@@ -46691,10 +45451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:49</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44260.44501157408</v>
       </c>
       <c r="I630" t="n">
         <v>20</v>
@@ -46766,10 +45524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:49</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44260.44501157408</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46837,10 +45593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:48</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44260.445</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46904,10 +45658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:43</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44260.44494212963</v>
       </c>
       <c r="I633" t="n">
         <v>75</v>
@@ -46983,10 +45735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:42</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44260.44493055555</v>
       </c>
       <c r="I634" t="n">
         <v>174</v>
@@ -47058,10 +45808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:42</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44260.44493055555</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -47133,10 +45881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:42</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44260.44493055555</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -47204,10 +45950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:41</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44260.44491898148</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47283,10 +46027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:37</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44260.44487268518</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -47362,10 +46104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:27</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44260.44475694445</v>
       </c>
       <c r="I639" t="n">
         <v>1</v>
@@ -47437,10 +46177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:24</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44260.44472222222</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47512,10 +46250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:40:23</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44260.44471064815</v>
       </c>
       <c r="I641" t="n">
         <v>11</v>
